--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3431.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3431.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8830933865285141</v>
+        <v>1.409962058067322</v>
       </c>
       <c r="B1">
-        <v>1.577969995320766</v>
+        <v>2.949176073074341</v>
       </c>
       <c r="C1">
-        <v>4.041179671232867</v>
+        <v>5.319368362426758</v>
       </c>
       <c r="D1">
-        <v>4.669768844858832</v>
+        <v>2.110706806182861</v>
       </c>
       <c r="E1">
-        <v>1.59059429896753</v>
+        <v>1.183958888053894</v>
       </c>
     </row>
   </sheetData>
